--- a/study01/report/motivation/scr-signedup-participants/effort-importance/by-Type/ParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-signedup-participants/effort-importance/by-Type/ParametricAnalysis.xlsx
@@ -9002,13 +9002,13 @@
         <v>0.9940596837549132</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>3.9671925895276736</v>
+        <v>3.967192589527673</v>
       </c>
       <c r="F6" t="n" s="35">
         <v>0.06615604997023791</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.05128018549027247</v>
+        <v>0.05128018549027253</v>
       </c>
     </row>
     <row r="7">
@@ -9025,13 +9025,13 @@
         <v>0.9940596837549132</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>1.8597170976541864</v>
+        <v>1.8597170976541835</v>
       </c>
       <c r="F7" t="n" s="35">
         <v>0.032141828390128475</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.1781143713813374</v>
+        <v>0.1781143713813378</v>
       </c>
     </row>
     <row r="8">
@@ -9048,13 +9048,13 @@
         <v>0.9940596837549132</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>1.4191019811841634</v>
+        <v>1.4191019811841667</v>
       </c>
       <c r="F8" t="n" s="35">
         <v>0.024714806261672228</v>
       </c>
       <c r="G8" t="n" s="36">
-        <v>0.23857589823527092</v>
+        <v>0.2385758982352704</v>
       </c>
     </row>
     <row r="9">
@@ -9098,7 +9098,7 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n" s="57">
-        <v>1836.8256745854023</v>
+        <v>1836.8256745854026</v>
       </c>
       <c r="E13" t="n" s="58">
         <v>1.6686610366212194E-44</v>
@@ -9115,10 +9115,10 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="57">
-        <v>3.9671925895276736</v>
+        <v>3.967192589527673</v>
       </c>
       <c r="E14" t="n" s="58">
-        <v>0.05128018549027247</v>
+        <v>0.05128018549027253</v>
       </c>
     </row>
     <row r="15">
@@ -9132,10 +9132,10 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="57">
-        <v>1.8597170976541864</v>
+        <v>1.8597170976541835</v>
       </c>
       <c r="E15" t="n" s="58">
-        <v>0.1781143713813374</v>
+        <v>0.1781143713813378</v>
       </c>
     </row>
     <row r="16">
@@ -9149,10 +9149,10 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>1.4191019811841634</v>
+        <v>1.4191019811841667</v>
       </c>
       <c r="E16" t="n" s="58">
-        <v>0.23857589823527092</v>
+        <v>0.2385758982352704</v>
       </c>
     </row>
     <row r="17">
@@ -16410,7 +16410,7 @@
         <v>-1.9917812604620202</v>
       </c>
       <c r="F26" t="n" s="296">
-        <v>0.05128018549027247</v>
+        <v>0.051280185490272474</v>
       </c>
     </row>
     <row r="27">
